--- a/va_facility_data_2025-02-20/Northwest Metro VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Northwest%20Metro%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Northwest Metro VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Northwest%20Metro%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rfef56612d9254aa29a6a75d21525b3bd"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R02d1c1d5001449c4b6db60041451ddbc"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R84c13baeeae0479c9dcf944c43e99cc7"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rd63c355745e341a7b7b7ef1620311bf9"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R4d92023856284c34bb9c433d5a47cb6c"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf8b063288f0a43f390d8ef08560160a5"/>
   </x:sheets>
 </x:workbook>
 </file>
